--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/CAAggregated C-A  Diff-in-DiffDAGVAR 2008-10-31 to 2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/CAAggregated C-A  Diff-in-DiffDAGVAR 2008-10-31 to 2020-02-29.xlsx
@@ -37,31 +37,31 @@
     <t>LF Lag</t>
   </si>
   <si>
-    <t>-0.958***</t>
-  </si>
-  <si>
-    <t>12.037***</t>
-  </si>
-  <si>
-    <t>0.211*</t>
+    <t>-0.955***</t>
+  </si>
+  <si>
+    <t>12.082***</t>
+  </si>
+  <si>
+    <t>0.231*</t>
   </si>
   <si>
     <t>-0.028***</t>
   </si>
   <si>
-    <t>0.094</t>
-  </si>
-  <si>
-    <t>-0.011</t>
-  </si>
-  <si>
-    <t>-0.159***</t>
-  </si>
-  <si>
-    <t>8.418***</t>
-  </si>
-  <si>
-    <t>-0.2**</t>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>-0.012</t>
+  </si>
+  <si>
+    <t>-0.128***</t>
+  </si>
+  <si>
+    <t>7.356***</t>
+  </si>
+  <si>
+    <t>-0.205**</t>
   </si>
 </sst>
 </file>
